--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osvaldoaldao/Documents/Projects/timer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enea-my.sharepoint.com/personal/osvald_enea_se/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8C7FE-BD88-F14A-8DE7-4B82450F51AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A2D8C7FE-BD88-F14A-8DE7-4B82450F51AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CBB47A6-AEC2-D04A-94C9-F6F0135310BE}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{C65EE922-2E43-614A-A9D4-4CE4A1763DD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>start_time</t>
   </si>
@@ -65,21 +65,12 @@
     <t>The Company ambition</t>
   </si>
   <si>
-    <t>CEO, Anders Lidbeck</t>
-  </si>
-  <si>
     <t>The Strategic direction </t>
   </si>
   <si>
-    <t xml:space="preserve">CTO, Osvaldo Aldao </t>
-  </si>
-  <si>
     <t>The customer perspective</t>
   </si>
   <si>
-    <t>Telia, Shahryar Khan</t>
-  </si>
-  <si>
     <t>Coffee &amp; networking </t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>“External speaker” </t>
   </si>
   <si>
-    <t>Mats Lindoff</t>
-  </si>
-  <si>
     <t>Lunch break &amp; networking </t>
   </si>
   <si>
@@ -126,6 +114,12 @@
   </si>
   <si>
     <t>CTO</t>
+  </si>
+  <si>
+    <t>dds</t>
+  </si>
+  <si>
+    <t>dsd</t>
   </si>
 </sst>
 </file>
@@ -135,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-SE,1]hh:mm;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,17 +512,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -556,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0.375</v>
       </c>
@@ -570,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.38263888888888886</v>
       </c>
@@ -581,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.39652777777777776</v>
       </c>
@@ -592,13 +586,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.41805555555555557</v>
       </c>
@@ -606,13 +600,13 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.43888888888888888</v>
       </c>
@@ -620,13 +614,13 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.4513888888888889</v>
       </c>
@@ -634,13 +628,13 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.46875</v>
       </c>
@@ -648,13 +642,13 @@
         <v>0.5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.50347222222222221</v>
       </c>
@@ -662,13 +656,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -676,13 +670,13 @@
         <v>0.5625</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.5625</v>
       </c>
@@ -690,13 +684,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -704,13 +698,13 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.63541666666666663</v>
       </c>
@@ -718,13 +712,13 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.64930555555555558</v>
       </c>
@@ -732,13 +726,13 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.68402777777777779</v>
       </c>
@@ -746,73 +740,73 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>0.73263888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B17" s="3">
-        <v>0.74652777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>0.74652777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B18" s="3">
-        <v>0.76041666666666663</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
